--- a/biology/Botanique/Johann_Heinrich_Robert_Göppert/Johann_Heinrich_Robert_Göppert.xlsx
+++ b/biology/Botanique/Johann_Heinrich_Robert_Göppert/Johann_Heinrich_Robert_Göppert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Johann_Heinrich_Robert_G%C3%B6ppert</t>
+          <t>Johann_Heinrich_Robert_Göppert</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Heinrich Robert Göppert est un botaniste et un paléontologue prussien, né le 25 juillet 1800 à Sprottau et mort le 18 mai 1884 à Breslau.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Johann_Heinrich_Robert_G%C3%B6ppert</t>
+          <t>Johann_Heinrich_Robert_Göppert</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Heinrich Göppert étudie d’abord la pharmacie à Sprottau et à Neiße avant d’étudier à partir de 1821 la médecine aux universités de Breslau et de Berlin. Il s’établit comme médecin à Breslau en 1826. L’année suivante, il est habilité en médecine et en botanique. En 1831, il enseigne la botanique et devient conservateur du jardin botanique ainsi qu’enseignant à l’institut de chirurgie de Breslau. En 1839, il devient professeur titulaire de botanique et en 1852 directeur du jardin botanique.
 Göppert est l’auteur de nombreuses publications sur les végétaux. Il s’est particulièrement intéressé à la paléobotanique dont il est l’une des figures les plus importantes du XIXe siècle. Julius Milde figure au nombre de ses élèves.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Johann_Heinrich_Robert_G%C3%B6ppert</t>
+          <t>Johann_Heinrich_Robert_Göppert</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Über die Wärmeentwickelung in den Pflanzen, deren Gefrieren und die Schutzmittel gegen dasselbe (1830)
 Über Wärmeentwickelung in der lebenden Pflanze (1832)
